--- a/nmadb/481470.xlsx
+++ b/nmadb/481470.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7755"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -53,13 +53,7 @@
     <t>Treatments</t>
   </si>
   <si>
-    <t>baseline mean</t>
-  </si>
-  <si>
     <t>follow-up mean</t>
-  </si>
-  <si>
-    <t>tx</t>
   </si>
   <si>
     <t>Mediterranean diet</t>
@@ -132,11 +126,17 @@
   <si>
     <t>NR</t>
   </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="15">
     <font>
       <sz val="11"/>
@@ -420,14 +420,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -445,7 +445,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -519,7 +519,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -554,7 +553,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -730,14 +728,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.140625" style="6" bestFit="1" customWidth="1"/>
@@ -763,16 +761,16 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>10</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>11</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>1</v>
@@ -782,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -790,7 +788,7 @@
         <v>2011</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -814,7 +812,9 @@
     </row>
     <row r="3" spans="1:14">
       <c r="B3" s="17"/>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
       <c r="D3" s="3">
         <v>5</v>
       </c>
@@ -837,7 +837,7 @@
         <v>2010</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3">
         <v>2</v>
@@ -861,7 +861,9 @@
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1">
       <c r="B5" s="17"/>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
       <c r="D5" s="3">
         <v>5</v>
       </c>
@@ -888,7 +890,7 @@
         <v>2009</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3">
         <v>3</v>
@@ -922,7 +924,9 @@
     </row>
     <row r="7" spans="1:14">
       <c r="B7" s="17"/>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3">
+        <v>3</v>
+      </c>
       <c r="D7" s="3">
         <v>2</v>
       </c>
@@ -944,7 +948,7 @@
         <v>2</v>
       </c>
       <c r="M7" s="28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N7" s="29"/>
     </row>
@@ -953,7 +957,7 @@
         <v>2007</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3">
         <v>4</v>
@@ -985,7 +989,9 @@
     </row>
     <row r="9" spans="1:14">
       <c r="B9" s="17"/>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3">
+        <v>4</v>
+      </c>
       <c r="D9" s="3">
         <v>3</v>
       </c>
@@ -1016,7 +1022,7 @@
         <v>2005</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" s="3">
         <v>5</v>
@@ -1048,7 +1054,9 @@
     </row>
     <row r="11" spans="1:14">
       <c r="B11" s="17"/>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3">
+        <v>5</v>
+      </c>
       <c r="D11" s="3">
         <v>6</v>
       </c>
@@ -1070,7 +1078,7 @@
         <v>6</v>
       </c>
       <c r="M11" s="28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N11" s="29"/>
     </row>
@@ -1079,7 +1087,7 @@
         <v>2011</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" s="3">
         <v>6</v>
@@ -1097,7 +1105,7 @@
         <v>5.52</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I12" s="9"/>
       <c r="K12" s="30"/>
@@ -1105,13 +1113,15 @@
         <v>7</v>
       </c>
       <c r="M12" s="31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N12" s="32"/>
     </row>
     <row r="13" spans="1:14">
       <c r="B13" s="17"/>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3">
+        <v>6</v>
+      </c>
       <c r="D13" s="3">
         <v>5</v>
       </c>
@@ -1134,7 +1144,7 @@
         <v>2009</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" s="3">
         <v>7</v>
@@ -1158,7 +1168,9 @@
     </row>
     <row r="15" spans="1:14">
       <c r="B15" s="17"/>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2">
+        <v>7</v>
+      </c>
       <c r="D15" s="2">
         <v>4</v>
       </c>
@@ -1180,7 +1192,7 @@
         <v>2009</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2">
         <v>8</v>
@@ -1203,7 +1215,9 @@
     </row>
     <row r="17" spans="1:17">
       <c r="B17" s="17"/>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2">
+        <v>8</v>
+      </c>
       <c r="D17" s="2">
         <v>5</v>
       </c>
@@ -1225,7 +1239,7 @@
         <v>2008</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" s="2">
         <v>9</v>
@@ -1250,7 +1264,9 @@
     </row>
     <row r="19" spans="1:17">
       <c r="B19" s="17"/>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2">
+        <v>9</v>
+      </c>
       <c r="D19" s="2">
         <v>5</v>
       </c>
@@ -1274,7 +1290,7 @@
         <v>2008</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20" s="2">
         <v>10</v>
@@ -1299,7 +1315,9 @@
     </row>
     <row r="21" spans="1:17">
       <c r="B21" s="17"/>
-      <c r="C21" s="2"/>
+      <c r="C21" s="2">
+        <v>10</v>
+      </c>
       <c r="D21" s="2">
         <v>5</v>
       </c>
@@ -1321,7 +1339,7 @@
         <v>2004</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C22" s="2">
         <v>11</v>
@@ -1344,7 +1362,9 @@
     </row>
     <row r="23" spans="1:17">
       <c r="B23" s="17"/>
-      <c r="C23" s="2"/>
+      <c r="C23" s="2">
+        <v>11</v>
+      </c>
       <c r="D23" s="2">
         <v>6</v>
       </c>
@@ -1366,7 +1386,7 @@
         <v>2003</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C24" s="2">
         <v>12</v>
@@ -1389,7 +1409,9 @@
     </row>
     <row r="25" spans="1:17">
       <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="C25" s="2">
+        <v>12</v>
+      </c>
       <c r="D25" s="3">
         <v>6</v>
       </c>
@@ -1498,12 +1520,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1515,12 +1537,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
